--- a/France/3_Comptabilite_Et_Fiscalite/8_Fiscalite/5_Contribution_Economique_Territoriale/2_Cotisation_Valeur_Ajoutee_Entreprises/CVAE_Formulaires.xlsx
+++ b/France/3_Comptabilite_Et_Fiscalite/8_Fiscalite/5_Contribution_Economique_Territoriale/2_Cotisation_Valeur_Ajoutee_Entreprises/CVAE_Formulaires.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CVAE_Formulaire_1330_CVAE_SD" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
   <si>
     <t>COTISATION SUR LA VALEUR AJOUTEE DES ENTREPRISES</t>
   </si>
@@ -204,6 +204,31 @@
   </si>
   <si>
     <t>(2) Les codes INSEE sont disponibles sur le site www.insee.fr.</t>
+  </si>
+  <si>
+    <t>SOCIETES ETRANGERES NE DISPOSANT PAS D’ETABLISSEMENT STABLE EN FRANCE
+REPARTITION DE LA VALEUR LOCATIVE DES IMMEUBLES DETENUS</t>
+  </si>
+  <si>
+    <t>Code INSEE de la commune (1)</t>
+  </si>
+  <si>
+    <t>Valeur locative de l'immeuble</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>(1) Les codes INSEE sont disponibles sur le site www.insee.fr.</t>
   </si>
 </sst>
 </file>
@@ -407,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -418,14 +443,92 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -433,24 +536,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -478,70 +569,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -850,7 +881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -864,36 +895,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -916,20 +947,20 @@
       <c r="D6" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -940,26 +971,26 @@
       <c r="A11" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6" t="s">
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -990,11 +1021,11 @@
       <c r="F16" s="1"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
@@ -1013,52 +1044,52 @@
       <c r="C20" s="1"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
     </row>
     <row r="24" spans="1:12" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
     </row>
     <row r="28" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -1067,29 +1098,29 @@
       <c r="B28" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="3" t="s">
+      <c r="C28" s="10"/>
+      <c r="D28" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
     </row>
     <row r="30" spans="1:12" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -1098,13 +1129,13 @@
       <c r="B32" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="39"/>
-      <c r="D32" s="9" t="s">
+      <c r="C32" s="10"/>
+      <c r="D32" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -1113,58 +1144,58 @@
       <c r="B33" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="40"/>
-      <c r="D33" s="9" t="s">
+      <c r="C33" s="11"/>
+      <c r="D33" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="14"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="21"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="17"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="39"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="20"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="42"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="23"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="45"/>
     </row>
     <row r="40" spans="1:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
@@ -1183,36 +1214,36 @@
       <c r="D43" s="1"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="33" t="s">
+      <c r="A45" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="36" t="s">
+      <c r="A46" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B46" s="36"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="28"/>
-      <c r="L46" s="28"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
     </row>
     <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
@@ -1221,7 +1252,7 @@
       <c r="B48" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="37" t="s">
+      <c r="C48" s="8" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="2" t="s">
@@ -1466,7 +1497,7 @@
       <c r="E80" s="1"/>
     </row>
     <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F83" s="28"/>
+      <c r="F83" s="6"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
@@ -1485,23 +1516,23 @@
       <c r="D85" s="1"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="24" t="s">
+      <c r="A87" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B87" s="25"/>
-      <c r="C87" s="25"/>
-      <c r="D87" s="25"/>
-      <c r="E87" s="26"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="23"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="24"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B88" s="12" t="s">
+      <c r="B88" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C88" s="14"/>
-      <c r="D88" s="37" t="s">
+      <c r="C88" s="21"/>
+      <c r="D88" s="8" t="s">
         <v>52</v>
       </c>
       <c r="E88" s="2" t="s">
@@ -1512,10 +1543,10 @@
       <c r="A89" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B89" s="41" t="s">
+      <c r="B89" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C89" s="42"/>
+      <c r="C89" s="13"/>
       <c r="D89" s="2" t="s">
         <v>54</v>
       </c>
@@ -1525,242 +1556,279 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
-      <c r="B90" s="43"/>
-      <c r="C90" s="44"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="15"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="43"/>
-      <c r="C91" s="44"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="15"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
-      <c r="B92" s="43"/>
-      <c r="C92" s="44"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="15"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
-      <c r="B93" s="43"/>
-      <c r="C93" s="44"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="15"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
-      <c r="B94" s="43"/>
-      <c r="C94" s="44"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="15"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
-      <c r="B95" s="43"/>
-      <c r="C95" s="44"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="15"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
-      <c r="B96" s="43"/>
-      <c r="C96" s="44"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="15"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
-      <c r="B97" s="43"/>
-      <c r="C97" s="44"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="15"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
-      <c r="B98" s="43"/>
-      <c r="C98" s="44"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="15"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
-      <c r="B99" s="43"/>
-      <c r="C99" s="44"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="15"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
-      <c r="B100" s="43"/>
-      <c r="C100" s="44"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="15"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
-      <c r="B101" s="43"/>
-      <c r="C101" s="44"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="15"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
-      <c r="B102" s="43"/>
-      <c r="C102" s="44"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="15"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
-      <c r="B103" s="43"/>
-      <c r="C103" s="44"/>
+      <c r="B103" s="14"/>
+      <c r="C103" s="15"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
-      <c r="B104" s="43"/>
-      <c r="C104" s="44"/>
+      <c r="B104" s="14"/>
+      <c r="C104" s="15"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
-      <c r="B105" s="43"/>
-      <c r="C105" s="44"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="15"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
-      <c r="B106" s="43"/>
-      <c r="C106" s="44"/>
+      <c r="B106" s="14"/>
+      <c r="C106" s="15"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
-      <c r="B107" s="43"/>
-      <c r="C107" s="44"/>
+      <c r="B107" s="14"/>
+      <c r="C107" s="15"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
-      <c r="B108" s="43"/>
-      <c r="C108" s="44"/>
+      <c r="B108" s="14"/>
+      <c r="C108" s="15"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
-      <c r="B109" s="43"/>
-      <c r="C109" s="44"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="15"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
-      <c r="B110" s="43"/>
-      <c r="C110" s="44"/>
+      <c r="B110" s="14"/>
+      <c r="C110" s="15"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
-      <c r="B111" s="43"/>
-      <c r="C111" s="44"/>
+      <c r="B111" s="14"/>
+      <c r="C111" s="15"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
-      <c r="B112" s="43"/>
-      <c r="C112" s="44"/>
+      <c r="B112" s="14"/>
+      <c r="C112" s="15"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
-      <c r="B113" s="43"/>
-      <c r="C113" s="44"/>
+      <c r="B113" s="14"/>
+      <c r="C113" s="15"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
-      <c r="B114" s="43"/>
-      <c r="C114" s="44"/>
+      <c r="B114" s="14"/>
+      <c r="C114" s="15"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
-      <c r="B115" s="43"/>
-      <c r="C115" s="44"/>
+      <c r="B115" s="14"/>
+      <c r="C115" s="15"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
-      <c r="B116" s="43"/>
-      <c r="C116" s="44"/>
+      <c r="B116" s="14"/>
+      <c r="C116" s="15"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
-      <c r="B117" s="43"/>
-      <c r="C117" s="44"/>
+      <c r="B117" s="14"/>
+      <c r="C117" s="15"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
-      <c r="B118" s="43"/>
-      <c r="C118" s="44"/>
+      <c r="B118" s="14"/>
+      <c r="C118" s="15"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
-      <c r="B119" s="43"/>
-      <c r="C119" s="44"/>
+      <c r="B119" s="14"/>
+      <c r="C119" s="15"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
-      <c r="B120" s="43"/>
-      <c r="C120" s="44"/>
+      <c r="B120" s="14"/>
+      <c r="C120" s="15"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="45" t="s">
+      <c r="A122" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B122" s="45"/>
-      <c r="C122" s="45"/>
+      <c r="B122" s="16"/>
+      <c r="C122" s="16"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="9" t="s">
+      <c r="A123" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B123" s="10"/>
-      <c r="C123" s="11"/>
+      <c r="B123" s="18"/>
+      <c r="C123" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="A122:C122"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E38"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
     <mergeCell ref="A123:C123"/>
     <mergeCell ref="B111:C111"/>
     <mergeCell ref="B112:C112"/>
@@ -1768,48 +1836,11 @@
     <mergeCell ref="B114:C114"/>
     <mergeCell ref="B115:C115"/>
     <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E38"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="A122:C122"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1818,14 +1849,268 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="73" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="6" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:D4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/France/3_Comptabilite_Et_Fiscalite/8_Fiscalite/5_Contribution_Economique_Territoriale/2_Cotisation_Valeur_Ajoutee_Entreprises/CVAE_Formulaires.xlsx
+++ b/France/3_Comptabilite_Et_Fiscalite/8_Fiscalite/5_Contribution_Economique_Territoriale/2_Cotisation_Valeur_Ajoutee_Entreprises/CVAE_Formulaires.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CVAE_Formulaire_1330_CVAE_SD" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="115">
   <si>
     <t>COTISATION SUR LA VALEUR AJOUTEE DES ENTREPRISES</t>
   </si>
@@ -229,6 +229,153 @@
   </si>
   <si>
     <t>(1) Les codes INSEE sont disponibles sur le site www.insee.fr.</t>
+  </si>
+  <si>
+    <t>TABLEAU DE LA VALEUR AJOUTEE ET DE LA CAPACITE DE PRODUCTION DES ENTREPRISES PRODUISANT DE L'ELECTRICITE (Articles 1519 D, 1519 E et 1519 F du CGI)</t>
+  </si>
+  <si>
+    <t>A. Montant de la valeur ajoutée des unités de production d'électricité</t>
+  </si>
+  <si>
+    <t>Valeur ajoutée globale (2033-E-SD ou 2059-E-SD)</t>
+  </si>
+  <si>
+    <t>Ratio Montant des charges afférentes à l’activité de production d’électricité / Montant total des charges de l’entreprise</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>Montant des charges afférentes à l’activité de production d’électricité</t>
+  </si>
+  <si>
+    <t>Montant total des charges de l’entreprise</t>
+  </si>
+  <si>
+    <t>Valeur ajoutée correspondant uniquement à celle créée par les unités de production d’électricité (B7 x R1 x R2)</t>
+  </si>
+  <si>
+    <t>Puissance installée totale des seuls établissements décrits aux articles 1519 D, 1519 E et 1519 F / Puissance installée totale</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Puissance installée totale des seuls établissements décrits aux articles 1519 D, 1519 E et 1519 F</t>
+  </si>
+  <si>
+    <t>Puissance installée totale</t>
+  </si>
+  <si>
+    <t>B. Liste des établissements comprenant des installations de production d’électricité d’origine photovoltaïque, hydraulique ou Éolienne mentionnées aux articles 1519 D, 1519 E et 1519 F du CGI</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>Code département (1)</t>
+  </si>
+  <si>
+    <t>Code commune (2)</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>Multi (3)(à cocher)</t>
+  </si>
+  <si>
+    <t>Puissance installée en KW</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>(3) Si l’unité de production est située sur plusieurs communes, veuillez cocher la case correspondante et compléter les tableaux C et D selon le cas.</t>
+  </si>
+  <si>
+    <t>C. Répartition de la valeur ajoutée des établissements mentionnés au B situés sur plusieurs communes à l’exception des ouvrages hydroélectriques concédés ou d’une puissance supérieure à 500 KW mentionnés à l’article 1475 du CGI</t>
+  </si>
+  <si>
+    <t>Établissement 1</t>
+  </si>
+  <si>
+    <t>Libellé de l'établissement</t>
+  </si>
+  <si>
+    <t>Somme des bases de CFE</t>
+  </si>
+  <si>
+    <t>Code commune (4)</t>
+  </si>
+  <si>
+    <t>Type d'installation (1 ou 2) (5)</t>
+  </si>
+  <si>
+    <t>Base de CFE (si 1 en D9) ou puissance installée (si 2 en D9)</t>
+  </si>
+  <si>
+    <t>Valeur ajoutée correspondante</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>Établissement 2</t>
+  </si>
+  <si>
+    <t>(4) Les codes INSEE sont disponibles sur le site www.insee.fr.</t>
+  </si>
+  <si>
+    <t>(5) Production d’électricité nucléaire, thermique à flamme ou hydraulique : indiquer « 1 » ; Production d'électricité photovoltaïque : indiquer « 2 ».</t>
+  </si>
+  <si>
+    <t>D. Répartition de la valeur ajoutée des établissements mentionnés au B correspondant à des ouvrages hydroélectriques concédés ou d’une puissance supérieure à 500 KW mentionnés à l’article 1475 du CGI</t>
+  </si>
+  <si>
+    <t>Code commune (6)</t>
+  </si>
+  <si>
+    <t>Pourcentage de répartition</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>(6) Les codes INSEE sont disponibles sur le site www.insee.fr.</t>
   </si>
 </sst>
 </file>
@@ -288,7 +435,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -428,11 +575,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -455,6 +626,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -574,6 +748,52 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -881,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L123"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A116" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:G125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -895,12 +1115,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -911,12 +1131,12 @@
       <c r="L1" s="5"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -947,12 +1167,12 @@
       <c r="D6" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -971,26 +1191,26 @@
       <c r="A11" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="47" t="s">
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1021,11 +1241,11 @@
       <c r="F16" s="1"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
@@ -1044,14 +1264,14 @@
       <c r="C20" s="1"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
@@ -1060,14 +1280,14 @@
       <c r="L22" s="6"/>
     </row>
     <row r="24" spans="1:12" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -1076,14 +1296,14 @@
       <c r="L24" s="5"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -1098,23 +1318,23 @@
       <c r="B28" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="32" t="s">
+      <c r="C28" s="11"/>
+      <c r="D28" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="32"/>
+      <c r="E28" s="33"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
     </row>
     <row r="30" spans="1:12" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="27"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="28"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -1129,13 +1349,13 @@
       <c r="B32" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="17" t="s">
+      <c r="C32" s="11"/>
+      <c r="D32" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="19"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -1144,53 +1364,53 @@
       <c r="B33" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="17" t="s">
+      <c r="C33" s="12"/>
+      <c r="D33" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E33" s="19"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="36"/>
-      <c r="E35" s="21"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="22"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="39"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="40"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="40"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="42"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="43"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="45"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="46"/>
     </row>
     <row r="40" spans="1:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="27"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="28"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -1214,14 +1434,14 @@
       <c r="D43" s="1"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="28" t="s">
+      <c r="A45" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="30"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="31"/>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
@@ -1230,14 +1450,14 @@
       <c r="L45" s="7"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
@@ -1252,7 +1472,7 @@
       <c r="B48" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="2" t="s">
@@ -1516,23 +1736,23 @@
       <c r="D85" s="1"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="22" t="s">
+      <c r="A87" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B87" s="23"/>
-      <c r="C87" s="23"/>
-      <c r="D87" s="23"/>
-      <c r="E87" s="24"/>
+      <c r="B87" s="24"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="25"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B88" s="20" t="s">
+      <c r="B88" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C88" s="21"/>
-      <c r="D88" s="8" t="s">
+      <c r="C88" s="22"/>
+      <c r="D88" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E88" s="2" t="s">
@@ -1543,10 +1763,10 @@
       <c r="A89" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B89" s="12" t="s">
+      <c r="B89" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C89" s="13"/>
+      <c r="C89" s="14"/>
       <c r="D89" s="2" t="s">
         <v>54</v>
       </c>
@@ -1556,234 +1776,234 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
-      <c r="B90" s="14"/>
-      <c r="C90" s="15"/>
+      <c r="B90" s="15"/>
+      <c r="C90" s="16"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="14"/>
-      <c r="C91" s="15"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="16"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
-      <c r="B92" s="14"/>
-      <c r="C92" s="15"/>
+      <c r="B92" s="15"/>
+      <c r="C92" s="16"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
-      <c r="B93" s="14"/>
-      <c r="C93" s="15"/>
+      <c r="B93" s="15"/>
+      <c r="C93" s="16"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
-      <c r="B94" s="14"/>
-      <c r="C94" s="15"/>
+      <c r="B94" s="15"/>
+      <c r="C94" s="16"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
-      <c r="B95" s="14"/>
-      <c r="C95" s="15"/>
+      <c r="B95" s="15"/>
+      <c r="C95" s="16"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
-      <c r="B96" s="14"/>
-      <c r="C96" s="15"/>
+      <c r="B96" s="15"/>
+      <c r="C96" s="16"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
-      <c r="B97" s="14"/>
-      <c r="C97" s="15"/>
+      <c r="B97" s="15"/>
+      <c r="C97" s="16"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
-      <c r="B98" s="14"/>
-      <c r="C98" s="15"/>
+      <c r="B98" s="15"/>
+      <c r="C98" s="16"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
-      <c r="B99" s="14"/>
-      <c r="C99" s="15"/>
+      <c r="B99" s="15"/>
+      <c r="C99" s="16"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
-      <c r="B100" s="14"/>
-      <c r="C100" s="15"/>
+      <c r="B100" s="15"/>
+      <c r="C100" s="16"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
-      <c r="B101" s="14"/>
-      <c r="C101" s="15"/>
+      <c r="B101" s="15"/>
+      <c r="C101" s="16"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
-      <c r="B102" s="14"/>
-      <c r="C102" s="15"/>
+      <c r="B102" s="15"/>
+      <c r="C102" s="16"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
-      <c r="B103" s="14"/>
-      <c r="C103" s="15"/>
+      <c r="B103" s="15"/>
+      <c r="C103" s="16"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
-      <c r="B104" s="14"/>
-      <c r="C104" s="15"/>
+      <c r="B104" s="15"/>
+      <c r="C104" s="16"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
-      <c r="B105" s="14"/>
-      <c r="C105" s="15"/>
+      <c r="B105" s="15"/>
+      <c r="C105" s="16"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
-      <c r="B106" s="14"/>
-      <c r="C106" s="15"/>
+      <c r="B106" s="15"/>
+      <c r="C106" s="16"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
-      <c r="B107" s="14"/>
-      <c r="C107" s="15"/>
+      <c r="B107" s="15"/>
+      <c r="C107" s="16"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
-      <c r="B108" s="14"/>
-      <c r="C108" s="15"/>
+      <c r="B108" s="15"/>
+      <c r="C108" s="16"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
-      <c r="B109" s="14"/>
-      <c r="C109" s="15"/>
+      <c r="B109" s="15"/>
+      <c r="C109" s="16"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
-      <c r="B110" s="14"/>
-      <c r="C110" s="15"/>
+      <c r="B110" s="15"/>
+      <c r="C110" s="16"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
-      <c r="B111" s="14"/>
-      <c r="C111" s="15"/>
+      <c r="B111" s="15"/>
+      <c r="C111" s="16"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
-      <c r="B112" s="14"/>
-      <c r="C112" s="15"/>
+      <c r="B112" s="15"/>
+      <c r="C112" s="16"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
-      <c r="B113" s="14"/>
-      <c r="C113" s="15"/>
+      <c r="B113" s="15"/>
+      <c r="C113" s="16"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
-      <c r="B114" s="14"/>
-      <c r="C114" s="15"/>
+      <c r="B114" s="15"/>
+      <c r="C114" s="16"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
-      <c r="B115" s="14"/>
-      <c r="C115" s="15"/>
+      <c r="B115" s="15"/>
+      <c r="C115" s="16"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
-      <c r="B116" s="14"/>
-      <c r="C116" s="15"/>
+      <c r="B116" s="15"/>
+      <c r="C116" s="16"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
-      <c r="B117" s="14"/>
-      <c r="C117" s="15"/>
+      <c r="B117" s="15"/>
+      <c r="C117" s="16"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
-      <c r="B118" s="14"/>
-      <c r="C118" s="15"/>
+      <c r="B118" s="15"/>
+      <c r="C118" s="16"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
-      <c r="B119" s="14"/>
-      <c r="C119" s="15"/>
+      <c r="B119" s="15"/>
+      <c r="C119" s="16"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
-      <c r="B120" s="14"/>
-      <c r="C120" s="15"/>
+      <c r="B120" s="15"/>
+      <c r="C120" s="16"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="16" t="s">
+      <c r="A122" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B122" s="16"/>
-      <c r="C122" s="16"/>
+      <c r="B122" s="17"/>
+      <c r="C122" s="17"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="17" t="s">
+      <c r="A123" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B123" s="18"/>
-      <c r="C123" s="19"/>
+      <c r="B123" s="19"/>
+      <c r="C123" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="54">
@@ -1851,8 +2071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection sqref="A1:E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1880,25 +2100,25 @@
       <c r="D2" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="6"/>
     </row>
     <row r="6" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="9" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2117,12 +2337,1201 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="46.85546875" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" customWidth="1"/>
+    <col min="7" max="7" width="29.85546875" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" customWidth="1"/>
+    <col min="9" max="9" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="51"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="37"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="15">
+        <f>H6/J6</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="8">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="8">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="56"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="53">
+        <f>H7/J7</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="54"/>
+      <c r="G7" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="8">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="56"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="15">
+        <f>E5*E6*E7</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="10" spans="1:10" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="47"/>
+      <c r="G12" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="47"/>
+      <c r="G13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" s="59"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="20"/>
+    </row>
+    <row r="48" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="33"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+    </row>
+    <row r="50" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50" s="64"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="61"/>
+      <c r="B53" s="62"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="62"/>
+    </row>
+    <row r="54" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="63"/>
+      <c r="B56" s="63"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="63"/>
+      <c r="F56" s="63"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="63"/>
+      <c r="B57" s="63"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="63"/>
+      <c r="F57" s="63"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="63"/>
+      <c r="B58" s="63"/>
+      <c r="C58" s="63"/>
+      <c r="D58" s="63"/>
+      <c r="E58" s="63"/>
+      <c r="F58" s="63"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="63"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="63"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="63"/>
+      <c r="F59" s="63"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="63"/>
+      <c r="B60" s="63"/>
+      <c r="C60" s="63"/>
+      <c r="D60" s="63"/>
+      <c r="E60" s="63"/>
+      <c r="F60" s="63"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="63"/>
+      <c r="B61" s="63"/>
+      <c r="C61" s="63"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="63"/>
+      <c r="F61" s="63"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="63"/>
+      <c r="B62" s="63"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="63"/>
+      <c r="F62" s="63"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="63"/>
+      <c r="B63" s="63"/>
+      <c r="C63" s="63"/>
+      <c r="D63" s="63"/>
+      <c r="E63" s="63"/>
+      <c r="F63" s="63"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="63"/>
+      <c r="B64" s="63"/>
+      <c r="C64" s="63"/>
+      <c r="D64" s="63"/>
+      <c r="E64" s="63"/>
+      <c r="F64" s="63"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="63"/>
+      <c r="B65" s="63"/>
+      <c r="C65" s="63"/>
+      <c r="D65" s="63"/>
+      <c r="E65" s="63"/>
+      <c r="F65" s="63"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="63"/>
+      <c r="B66" s="63"/>
+      <c r="C66" s="63"/>
+      <c r="D66" s="63"/>
+      <c r="E66" s="63"/>
+      <c r="F66" s="63"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="61"/>
+      <c r="B69" s="62"/>
+      <c r="C69" s="62"/>
+      <c r="D69" s="62"/>
+    </row>
+    <row r="70" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="63"/>
+      <c r="B72" s="63"/>
+      <c r="C72" s="63"/>
+      <c r="D72" s="63"/>
+      <c r="E72" s="63"/>
+      <c r="F72" s="63"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="63"/>
+      <c r="B73" s="63"/>
+      <c r="C73" s="63"/>
+      <c r="D73" s="63"/>
+      <c r="E73" s="63"/>
+      <c r="F73" s="63"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="63"/>
+      <c r="B74" s="63"/>
+      <c r="C74" s="63"/>
+      <c r="D74" s="63"/>
+      <c r="E74" s="63"/>
+      <c r="F74" s="63"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="63"/>
+      <c r="B75" s="63"/>
+      <c r="C75" s="63"/>
+      <c r="D75" s="63"/>
+      <c r="E75" s="63"/>
+      <c r="F75" s="63"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="63"/>
+      <c r="B76" s="63"/>
+      <c r="C76" s="63"/>
+      <c r="D76" s="63"/>
+      <c r="E76" s="63"/>
+      <c r="F76" s="63"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="63"/>
+      <c r="B77" s="63"/>
+      <c r="C77" s="63"/>
+      <c r="D77" s="63"/>
+      <c r="E77" s="63"/>
+      <c r="F77" s="63"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="63"/>
+      <c r="B78" s="63"/>
+      <c r="C78" s="63"/>
+      <c r="D78" s="63"/>
+      <c r="E78" s="63"/>
+      <c r="F78" s="63"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="63"/>
+      <c r="B79" s="63"/>
+      <c r="C79" s="63"/>
+      <c r="D79" s="63"/>
+      <c r="E79" s="63"/>
+      <c r="F79" s="63"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="63"/>
+      <c r="B80" s="63"/>
+      <c r="C80" s="63"/>
+      <c r="D80" s="63"/>
+      <c r="E80" s="63"/>
+      <c r="F80" s="63"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="63"/>
+      <c r="B81" s="63"/>
+      <c r="C81" s="63"/>
+      <c r="D81" s="63"/>
+      <c r="E81" s="63"/>
+      <c r="F81" s="63"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="63"/>
+      <c r="B82" s="63"/>
+      <c r="C82" s="63"/>
+      <c r="D82" s="63"/>
+      <c r="E82" s="63"/>
+      <c r="F82" s="63"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="B84" s="59"/>
+    </row>
+    <row r="85" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="B85" s="33"/>
+    </row>
+    <row r="87" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="B87" s="50"/>
+      <c r="C87" s="50"/>
+      <c r="D87" s="51"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="61"/>
+      <c r="B90" s="62"/>
+      <c r="C90" s="62"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="61"/>
+      <c r="B106" s="62"/>
+      <c r="C106" s="62"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="B121" s="59"/>
+    </row>
+  </sheetData>
+  <mergeCells count="58">
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="E6:F6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>